--- a/CalculosProyectoFinal.xlsx
+++ b/CalculosProyectoFinal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\destr\Documents\4to semestre\Redes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\destr\Cisco Packet Tracer 7.3.0\saves\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966B6099-9D76-4A18-9DB0-B6553E24814B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28CD5BB8-41B0-447F-9F3A-597ADFD0BB60}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D913D902-E6E2-4508-8EA1-5754E1E9220A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>Chihuahua</t>
   </si>
@@ -100,6 +100,51 @@
   </si>
   <si>
     <t>192.168.6.190</t>
+  </si>
+  <si>
+    <t>Telefonos</t>
+  </si>
+  <si>
+    <t>193.168.7.0</t>
+  </si>
+  <si>
+    <t>255.255.255.240</t>
+  </si>
+  <si>
+    <t>193.168.7.15</t>
+  </si>
+  <si>
+    <t>Rango util</t>
+  </si>
+  <si>
+    <t>193.168.7.1 - 193.168.7.14</t>
+  </si>
+  <si>
+    <t>193.168.7.14</t>
+  </si>
+  <si>
+    <t>193.168.7.16</t>
+  </si>
+  <si>
+    <t>193.168.7.31</t>
+  </si>
+  <si>
+    <t>193.168.7.17 - 193.168.7.30</t>
+  </si>
+  <si>
+    <t>193.168.7.30</t>
+  </si>
+  <si>
+    <t>193.168.7.32</t>
+  </si>
+  <si>
+    <t>193.168.7.47</t>
+  </si>
+  <si>
+    <t>193.168.7.33 - 193.168.7.46</t>
+  </si>
+  <si>
+    <t>193.168.7.46</t>
   </si>
 </sst>
 </file>
@@ -451,151 +496,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318ED7EC-5F3B-423F-931C-0271FE47972B}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
